--- a/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según si tienen obesidad en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según si tienen obesidad en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según si tienen obesidad en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según si tienen obesidad en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>189009</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>162787</v>
+        <v>164861</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>214466</v>
+        <v>213813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1866683601874984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1607710454750381</v>
+        <v>0.1628190748027225</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2118096243804332</v>
+        <v>0.2111648070271425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>321</v>
@@ -765,19 +765,19 @@
         <v>326677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>297581</v>
+        <v>294626</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>360530</v>
+        <v>360012</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2542069186855688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2315654465056155</v>
+        <v>0.2292660573584009</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.280549739912922</v>
+        <v>0.2801461585415113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>508</v>
@@ -786,19 +786,19 @@
         <v>515687</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>475680</v>
+        <v>478435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>551886</v>
+        <v>556409</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2244433560027743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2070312960910609</v>
+        <v>0.2082303932848189</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2401983254867726</v>
+        <v>0.2421669330051868</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>823531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>798074</v>
+        <v>798727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>849753</v>
+        <v>847679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8133316398125016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7881903756195667</v>
+        <v>0.7888351929728573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8392289545249618</v>
+        <v>0.8371809251972775</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>942</v>
@@ -836,19 +836,19 @@
         <v>958408</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>924555</v>
+        <v>925073</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>987504</v>
+        <v>990459</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7457930813144312</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7194502600870779</v>
+        <v>0.7198538414584887</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7684345534943845</v>
+        <v>0.7707339426415991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1773</v>
@@ -857,19 +857,19 @@
         <v>1781938</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1745739</v>
+        <v>1741216</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1821945</v>
+        <v>1819190</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7755566439972257</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7598016745132274</v>
+        <v>0.7578330669948132</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.792968703908939</v>
+        <v>0.7917696067151816</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>155511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133310</v>
+        <v>131567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>180552</v>
+        <v>182824</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09231490422964139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07913571203607171</v>
+        <v>0.07810096159735409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.107179547376808</v>
+        <v>0.1085281390166648</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -982,19 +982,19 @@
         <v>138756</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117530</v>
+        <v>117407</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>161369</v>
+        <v>163960</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08808189430564391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07460756818273119</v>
+        <v>0.07452951597508771</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1024367484898642</v>
+        <v>0.1040814999849744</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>284</v>
@@ -1003,19 +1003,19 @@
         <v>294267</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>261899</v>
+        <v>262638</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>327606</v>
+        <v>330950</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09026934262613301</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08034011998642336</v>
+        <v>0.08056691181613278</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1004962164494593</v>
+        <v>0.1015222979537879</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1529062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1504021</v>
+        <v>1501749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1551263</v>
+        <v>1553006</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9076850957703586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.892820452623192</v>
+        <v>0.8914718609833352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9208642879639283</v>
+        <v>0.9218990384026461</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1410</v>
@@ -1053,19 +1053,19 @@
         <v>1436549</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1413936</v>
+        <v>1411345</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1457775</v>
+        <v>1457898</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9119181056943561</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8975632515101358</v>
+        <v>0.8959185000150257</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9253924318172689</v>
+        <v>0.9254704840249123</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2900</v>
@@ -1074,19 +1074,19 @@
         <v>2965612</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2932273</v>
+        <v>2928929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2997980</v>
+        <v>2997241</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9097306573738669</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8995037835505407</v>
+        <v>0.8984777020462121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9196598800135767</v>
+        <v>0.9194330881838674</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>50931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36860</v>
+        <v>37915</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65293</v>
+        <v>67091</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0931163187407217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06739046091538994</v>
+        <v>0.0693196200265464</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1193739610570214</v>
+        <v>0.1226603308448467</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1199,19 +1199,19 @@
         <v>31877</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22249</v>
+        <v>21447</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46686</v>
+        <v>43756</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0674524982464242</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04707916193798278</v>
+        <v>0.04538121509610728</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09878826164848299</v>
+        <v>0.09258832331005543</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -1220,19 +1220,19 @@
         <v>82809</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66644</v>
+        <v>64635</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102153</v>
+        <v>100542</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08122050164727203</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06536568571675212</v>
+        <v>0.06339569883582673</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1001934755714287</v>
+        <v>0.09861411890149058</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>496034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>481672</v>
+        <v>479874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>510105</v>
+        <v>509050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9068836812592783</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8806260389429785</v>
+        <v>0.877339669155153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.93260953908461</v>
+        <v>0.9306803799734532</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>420</v>
@@ -1270,19 +1270,19 @@
         <v>440711</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>425902</v>
+        <v>428832</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>450339</v>
+        <v>451141</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9325475017535758</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.901211738351517</v>
+        <v>0.9074116766899446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9529208380620172</v>
+        <v>0.9546187849038927</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>896</v>
@@ -1291,19 +1291,19 @@
         <v>936744</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>917400</v>
+        <v>919011</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>952909</v>
+        <v>954918</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.918779498352728</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8998065244285713</v>
+        <v>0.9013858810985095</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9346343142832479</v>
+        <v>0.9366043011641733</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>395452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1218995832882864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>483</v>
@@ -1416,19 +1416,19 @@
         <v>497311</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1492090746758289</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>868</v>
@@ -1437,19 +1437,19 @@
         <v>892762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1357388950030567</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2848627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2813055</v>
+        <v>2805993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2887731</v>
+        <v>2883061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8781004167117136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8671353028266651</v>
+        <v>0.8649583510119456</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8901544535236791</v>
+        <v>0.8887149311415589</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2772</v>
@@ -1487,19 +1487,19 @@
         <v>2835667</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2792034</v>
+        <v>2794530</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2876699</v>
+        <v>2879118</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8507909253241711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8376994493463912</v>
+        <v>0.8384485014976569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8631016903355717</v>
+        <v>0.8638274480722148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5569</v>
@@ -1508,19 +1508,19 @@
         <v>5684295</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5626667</v>
+        <v>5629187</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5737446</v>
+        <v>5735621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8642611049969433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8554992020650134</v>
+        <v>0.855882360299974</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8723425095898083</v>
+        <v>0.872064989763252</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>233536</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208398</v>
+        <v>206868</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>264172</v>
+        <v>261010</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2480306652050998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2213320891091516</v>
+        <v>0.2197075935096862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2805679182316212</v>
+        <v>0.2772097341097945</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>403</v>
@@ -1872,19 +1872,19 @@
         <v>428399</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>397727</v>
+        <v>391406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>466134</v>
+        <v>459951</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.346416823667796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3216142662300533</v>
+        <v>0.3165031165957388</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3769303246717908</v>
+        <v>0.3719310457638752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>617</v>
@@ -1893,19 +1893,19 @@
         <v>661935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>619445</v>
+        <v>621023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>707750</v>
+        <v>705839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3038882295902081</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2843817014153452</v>
+        <v>0.2851059649231872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3249216109305669</v>
+        <v>0.3240445637777786</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>708025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>677389</v>
+        <v>680551</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>733163</v>
+        <v>734693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7519693347949002</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7194320817683794</v>
+        <v>0.7227902658902056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7786679108908484</v>
+        <v>0.7802924064903138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>749</v>
@@ -1943,19 +1943,19 @@
         <v>808258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>770523</v>
+        <v>776706</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>838930</v>
+        <v>845251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.653583176332204</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6230696753282093</v>
+        <v>0.6280689542361247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6783857337699467</v>
+        <v>0.6834968834042613</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1413</v>
@@ -1964,19 +1964,19 @@
         <v>1516282</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1470467</v>
+        <v>1472378</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1558772</v>
+        <v>1557194</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.696111770409792</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6750783890694331</v>
+        <v>0.6759554362222212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7156182985846546</v>
+        <v>0.7148940350768127</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>271257</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>240441</v>
+        <v>240232</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>304332</v>
+        <v>305079</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1397600326019499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1238823351201526</v>
+        <v>0.1237746486360712</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1568012516498361</v>
+        <v>0.1571859045564364</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -2089,19 +2089,19 @@
         <v>260429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>232284</v>
+        <v>229775</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>293878</v>
+        <v>292353</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1520970443481089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1356592449137471</v>
+        <v>0.1341944335495389</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1716319225658524</v>
+        <v>0.1707409588358834</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>491</v>
@@ -2110,19 +2110,19 @@
         <v>531687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>488450</v>
+        <v>485574</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>580931</v>
+        <v>574654</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1455425004383959</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1337070452352402</v>
+        <v>0.1329197603685444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1590226688984984</v>
+        <v>0.1573041934962814</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1669622</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1636547</v>
+        <v>1635800</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1700438</v>
+        <v>1700647</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8602399673980501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8431987483501637</v>
+        <v>0.8428140954435636</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8761176648798473</v>
+        <v>0.8762253513639288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1353</v>
@@ -2160,19 +2160,19 @@
         <v>1451829</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1418380</v>
+        <v>1419905</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1479974</v>
+        <v>1482483</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8479029556518911</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8283680774341481</v>
+        <v>0.8292590411641166</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8643407550862529</v>
+        <v>0.865805566450461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2937</v>
@@ -2181,19 +2181,19 @@
         <v>3121449</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3072205</v>
+        <v>3078482</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3164686</v>
+        <v>3167562</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8544574995616041</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8409773311015016</v>
+        <v>0.8426958065037186</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8662929547647599</v>
+        <v>0.8670802396314556</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>49615</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36827</v>
+        <v>36983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66035</v>
+        <v>68100</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1051315030610432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07803359536301364</v>
+        <v>0.07836423662264463</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1399246115532389</v>
+        <v>0.1443005679047026</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -2306,19 +2306,19 @@
         <v>28124</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18977</v>
+        <v>18891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40355</v>
+        <v>41466</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06187318703733755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04174939999841413</v>
+        <v>0.04156076530589511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0887812688406807</v>
+        <v>0.09122577981060968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -2327,19 +2327,19 @@
         <v>77739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61306</v>
+        <v>61437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97585</v>
+        <v>97992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08390821556838089</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06617035957085204</v>
+        <v>0.06631214269061737</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.105328976744358</v>
+        <v>0.1057681055381412</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>422319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>405899</v>
+        <v>403834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>435107</v>
+        <v>434951</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8948684969389569</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.860075388446761</v>
+        <v>0.8556994320952978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9219664046369863</v>
+        <v>0.9216357633773555</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>382</v>
@@ -2377,19 +2377,19 @@
         <v>426424</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>414193</v>
+        <v>413082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>435571</v>
+        <v>435657</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9381268129626624</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9112187311593197</v>
+        <v>0.9087742201893906</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9582506000015859</v>
+        <v>0.958439234694105</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>768</v>
@@ -2398,19 +2398,19 @@
         <v>848743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>828897</v>
+        <v>828490</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>865176</v>
+        <v>865045</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9160917844316191</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8946710232556421</v>
+        <v>0.8942318944618589</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.933829640429148</v>
+        <v>0.9336878573093826</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>554408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>512518</v>
+        <v>511291</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>608109</v>
+        <v>597756</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.16527925586741</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1527909604788607</v>
+        <v>0.1524250872157726</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.181288529072806</v>
+        <v>0.1782020553263705</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>668</v>
@@ -2523,19 +2523,19 @@
         <v>716952</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>668918</v>
+        <v>668344</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>764221</v>
+        <v>766556</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2106538180812225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1965404407195807</v>
+        <v>0.1963716085238934</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.224542201698282</v>
+        <v>0.2252281945549759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1177</v>
@@ -2544,19 +2544,19 @@
         <v>1271361</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1203704</v>
+        <v>1205393</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1334287</v>
+        <v>1337894</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1881313409651028</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1781197021129037</v>
+        <v>0.1783696539094899</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1974429419161771</v>
+        <v>0.1979766877431686</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2799965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2746264</v>
+        <v>2756617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2841855</v>
+        <v>2843082</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.83472074413259</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.818711470927194</v>
+        <v>0.8217979446736297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8472090395211392</v>
+        <v>0.8475749127842275</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2484</v>
@@ -2594,19 +2594,19 @@
         <v>2686511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2639242</v>
+        <v>2636907</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2734545</v>
+        <v>2735119</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7893461819187775</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7754577983017176</v>
+        <v>0.7747718054450241</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8034595592804191</v>
+        <v>0.8036283914761063</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5118</v>
@@ -2615,19 +2615,19 @@
         <v>5486474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5423548</v>
+        <v>5419941</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5554131</v>
+        <v>5552442</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8118686590348972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8025570580838229</v>
+        <v>0.8020233122568314</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8218802978870964</v>
+        <v>0.8216303460905102</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>167939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>144646</v>
+        <v>146244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>193341</v>
+        <v>190353</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2361287784274222</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2033772729740761</v>
+        <v>0.2056243851531512</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2718452351745786</v>
+        <v>0.267643344255304</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>263</v>
@@ -2982,16 +2982,16 @@
         <v>266096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328008</v>
+        <v>325142</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3352134730499378</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3011348623392981</v>
+        <v>0.3011346275723388</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3711993842453967</v>
+        <v>0.3679553627677843</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>430</v>
@@ -3000,19 +3000,19 @@
         <v>464149</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>430412</v>
+        <v>428939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>504891</v>
+        <v>506406</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2910272887439074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.269873571962206</v>
+        <v>0.2689501419435105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3165729453306806</v>
+        <v>0.3175227665844469</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>543280</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>517878</v>
+        <v>520866</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>566573</v>
+        <v>564975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7638712215725778</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7281547648254213</v>
+        <v>0.7323566557446962</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.796622727025924</v>
+        <v>0.7943756148468492</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>536</v>
@@ -3050,7 +3050,7 @@
         <v>587435</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>555637</v>
+        <v>558503</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>617549</v>
@@ -3059,10 +3059,10 @@
         <v>0.6647865269500622</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6288006157546036</v>
+        <v>0.6320446372322156</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.698865137660702</v>
+        <v>0.6988653724276611</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1086</v>
@@ -3071,19 +3071,19 @@
         <v>1130715</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1089973</v>
+        <v>1088458</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1164452</v>
+        <v>1165925</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7089727112560926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6834270546693193</v>
+        <v>0.6824772334155531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7301264280377939</v>
+        <v>0.7310498580564894</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>326473</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>293721</v>
+        <v>292704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>360964</v>
+        <v>359894</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1621768949885154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1459072248582456</v>
+        <v>0.1454018054800799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1793105207412196</v>
+        <v>0.1787787131412391</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>258</v>
@@ -3196,19 +3196,19 @@
         <v>276239</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>246529</v>
+        <v>247961</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>310396</v>
+        <v>310352</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1436865492701634</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.128233062798696</v>
+        <v>0.1289778049921213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1614537682635755</v>
+        <v>0.1614307268505651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>560</v>
@@ -3217,19 +3217,19 @@
         <v>602712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>559290</v>
+        <v>558244</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>645539</v>
+        <v>649057</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1531444581782596</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1421112570177165</v>
+        <v>0.1418454429769389</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.164026563062891</v>
+        <v>0.1649204165806184</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1686596</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1652105</v>
+        <v>1653175</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1719348</v>
+        <v>1720365</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8378231050114846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8206894792587804</v>
+        <v>0.8212212868587609</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8540927751417544</v>
+        <v>0.85459819451992</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1589</v>
@@ -3267,19 +3267,19 @@
         <v>1646271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1612114</v>
+        <v>1612158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1675981</v>
+        <v>1674549</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8563134507298366</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8385462317364248</v>
+        <v>0.8385692731494353</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8717669372013042</v>
+        <v>0.871022195007879</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3181</v>
@@ -3288,19 +3288,19 @@
         <v>3332867</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3290040</v>
+        <v>3286522</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3376289</v>
+        <v>3377335</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8468555418217405</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.835973436937109</v>
+        <v>0.8350795834193819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8578887429822833</v>
+        <v>0.8581545570230613</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>61185</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47208</v>
+        <v>46454</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76766</v>
+        <v>78164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1148159288741741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08858692776736497</v>
+        <v>0.08717198421582063</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1440550207930229</v>
+        <v>0.1466772815751755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3413,19 +3413,19 @@
         <v>50097</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37561</v>
+        <v>37741</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65371</v>
+        <v>66309</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09565425279503996</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07171717073358008</v>
+        <v>0.0720612652307699</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1248183767990154</v>
+        <v>0.1266079719942045</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -3434,19 +3434,19 @@
         <v>111282</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90756</v>
+        <v>91346</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134559</v>
+        <v>132804</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1053181679686313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08589236879144205</v>
+        <v>0.08645066971071551</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1273475145164799</v>
+        <v>0.1256863485462206</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>471710</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>456129</v>
+        <v>454731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>485687</v>
+        <v>486441</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8851840711258259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8559449792069772</v>
+        <v>0.8533227184248245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9114130722326352</v>
+        <v>0.9128280157841794</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>457</v>
@@ -3484,19 +3484,19 @@
         <v>473635</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>458361</v>
+        <v>457423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>486171</v>
+        <v>485991</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9043457472049601</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8751816232009847</v>
+        <v>0.8733920280057955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9282828292664199</v>
+        <v>0.9279387347692302</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>891</v>
@@ -3505,19 +3505,19 @@
         <v>945345</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>922068</v>
+        <v>923823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>965871</v>
+        <v>965281</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8946818320313688</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.87265248548352</v>
+        <v>0.8743136514537794</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9141076312085579</v>
+        <v>0.9135493302892845</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>555597</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>515562</v>
+        <v>512844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>599513</v>
+        <v>599140</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.170576057892826</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1582845595224775</v>
+        <v>0.1574500553526657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.184058755799102</v>
+        <v>0.1839440762195732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>566</v>
@@ -3630,19 +3630,19 @@
         <v>622546</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>573747</v>
+        <v>579564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>665678</v>
+        <v>674892</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1869569955658299</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.17230235617471</v>
+        <v>0.1740490214704388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1999100635618307</v>
+        <v>0.2026772622555811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1090</v>
@@ -3651,19 +3651,19 @@
         <v>1178143</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1113875</v>
+        <v>1117242</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1235875</v>
+        <v>1241378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1788569273522549</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1691002088732387</v>
+        <v>0.1696114128289437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1876213818463184</v>
+        <v>0.1884568484232895</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2701586</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2657670</v>
+        <v>2658043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2741621</v>
+        <v>2744339</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.829423942107174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.815941244200898</v>
+        <v>0.8160559237804268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8417154404775223</v>
+        <v>0.8425499446473341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2582</v>
@@ -3701,19 +3701,19 @@
         <v>2707341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2664209</v>
+        <v>2654995</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2756140</v>
+        <v>2750323</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8130430044341701</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8000899364381698</v>
+        <v>0.7973227377444191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8276976438252901</v>
+        <v>0.8259509785295612</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5158</v>
@@ -3722,19 +3722,19 @@
         <v>5408927</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5351195</v>
+        <v>5345692</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5473195</v>
+        <v>5469828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8211430726477451</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8123786181536815</v>
+        <v>0.8115431515767102</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8308997911267613</v>
+        <v>0.8303885871710562</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>136057</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>115889</v>
+        <v>118277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155257</v>
+        <v>156192</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.249880449968435</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2128401521744671</v>
+        <v>0.2172263535105144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2851437324417291</v>
+        <v>0.2868593983027993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>379</v>
@@ -4086,19 +4086,19 @@
         <v>215713</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197785</v>
+        <v>197713</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>234559</v>
+        <v>237656</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2871764418377644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2633093697462227</v>
+        <v>0.2632131105442774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.312265453068667</v>
+        <v>0.3163882328290744</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>544</v>
@@ -4107,19 +4107,19 @@
         <v>351770</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>325065</v>
+        <v>323892</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>380330</v>
+        <v>379370</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2715029385041625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2508913106793136</v>
+        <v>0.2499863245350564</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.293545706259884</v>
+        <v>0.2928051873567525</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>408431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389231</v>
+        <v>388296</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428599</v>
+        <v>426211</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7501195500315649</v>
+        <v>0.7501195500315651</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7148562675582699</v>
+        <v>0.7131406016972005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7871598478255328</v>
+        <v>0.7827736464894856</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>910</v>
@@ -4157,19 +4157,19 @@
         <v>535439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>516593</v>
+        <v>513496</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>553367</v>
+        <v>553439</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7128235581622356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6877345469313328</v>
+        <v>0.6836117671709259</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7366906302537772</v>
+        <v>0.736786889455723</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1402</v>
@@ -4178,19 +4178,19 @@
         <v>943870</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>915310</v>
+        <v>916270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>970575</v>
+        <v>971748</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7284970614958374</v>
+        <v>0.7284970614958375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7064542937401165</v>
+        <v>0.7071948126432479</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7491086893206864</v>
+        <v>0.7500136754649437</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>360756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>323943</v>
+        <v>323640</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>398348</v>
+        <v>398471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1641672033469967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1474148322111059</v>
+        <v>0.1472769074636141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1812736950608712</v>
+        <v>0.1813298014027675</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>475</v>
@@ -4303,19 +4303,19 @@
         <v>323082</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>295008</v>
+        <v>297902</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>352989</v>
+        <v>356083</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1522647041093896</v>
+        <v>0.1522647041093897</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1390337597807273</v>
+        <v>0.14039777394482</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1663594744388392</v>
+        <v>0.1678178537619346</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>832</v>
@@ -4324,19 +4324,19 @@
         <v>683839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>636938</v>
+        <v>638403</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>732681</v>
+        <v>736167</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1583201823943212</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1474619407131671</v>
+        <v>0.1478009835893881</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1696279236774175</v>
+        <v>0.1704351217786916</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1836737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1799145</v>
+        <v>1799022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1873550</v>
+        <v>1873853</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8358327966530034</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8187263049391286</v>
+        <v>0.8186701985972323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8525851677888943</v>
+        <v>0.8527230925363853</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2384</v>
@@ -4374,19 +4374,19 @@
         <v>1798763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1768856</v>
+        <v>1765762</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1826837</v>
+        <v>1823943</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8477352958906103</v>
+        <v>0.8477352958906105</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8336405255611609</v>
+        <v>0.832182146238066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8609662402192728</v>
+        <v>0.8596022260551802</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3988</v>
@@ -4395,19 +4395,19 @@
         <v>3635500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3586658</v>
+        <v>3583172</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3682401</v>
+        <v>3680936</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8416798176056788</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8303720763225827</v>
+        <v>0.8295648782213085</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.852538059286833</v>
+        <v>0.8521990164106118</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>88297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71812</v>
+        <v>71092</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110144</v>
+        <v>108768</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.126347332023701</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1027591285177161</v>
+        <v>0.101727729598527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1576086785154132</v>
+        <v>0.1556409062395632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>107</v>
@@ -4520,19 +4520,19 @@
         <v>76478</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62356</v>
+        <v>62992</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90519</v>
+        <v>92673</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1071013959121132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08732399584083846</v>
+        <v>0.08821574514683894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1267648391323869</v>
+        <v>0.1297808777933695</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>196</v>
@@ -4541,19 +4541,19 @@
         <v>164775</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142658</v>
+        <v>142821</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>190767</v>
+        <v>189030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1166206389177727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1009676351407202</v>
+        <v>0.10108266059512</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1350169300904067</v>
+        <v>0.1337871450831983</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>610545</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>588698</v>
+        <v>590074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627030</v>
+        <v>627750</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8736526679762993</v>
+        <v>0.8736526679762989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8423913214845867</v>
+        <v>0.8443590937604368</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.897240871482284</v>
+        <v>0.8982722704014729</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>866</v>
@@ -4591,19 +4591,19 @@
         <v>637594</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623553</v>
+        <v>621399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>651716</v>
+        <v>651080</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8928986040878869</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8732351608676128</v>
+        <v>0.8702191222066304</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9126760041591615</v>
+        <v>0.9117842548531612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1444</v>
@@ -4612,19 +4612,19 @@
         <v>1248138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1222146</v>
+        <v>1223883</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1270255</v>
+        <v>1270092</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8833793610822274</v>
+        <v>0.8833793610822273</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8649830699095933</v>
+        <v>0.8662128549168017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8990323648592798</v>
+        <v>0.8989173394048801</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>585110</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>540512</v>
+        <v>542047</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>627793</v>
+        <v>633438</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1700494400415483</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1570880229689027</v>
+        <v>0.1575340780385544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1824542713712728</v>
+        <v>0.1840948401794972</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>961</v>
@@ -4737,19 +4737,19 @@
         <v>615273</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>572089</v>
+        <v>577289</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>653817</v>
+        <v>651295</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1715253950298872</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1594864822789379</v>
+        <v>0.1609360823622699</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1822706042882922</v>
+        <v>0.1815674662072741</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1572</v>
@@ -4758,19 +4758,19 @@
         <v>1200384</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1145103</v>
+        <v>1142763</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1269294</v>
+        <v>1263619</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1708027743857781</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1629369343679641</v>
+        <v>0.1626039905131224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1806080832668187</v>
+        <v>0.1798004882318458</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2855713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2813030</v>
+        <v>2807385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2900311</v>
+        <v>2898776</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8299505599584518</v>
+        <v>0.8299505599584517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8175457286287271</v>
+        <v>0.8159051598205029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8429119770310973</v>
+        <v>0.8424659219614457</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4160</v>
@@ -4808,19 +4808,19 @@
         <v>2971796</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2933252</v>
+        <v>2935774</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3014980</v>
+        <v>3009780</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8284746049701127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8177293957117078</v>
+        <v>0.8184325337927256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8405135177210616</v>
+        <v>0.8390639176377297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6834</v>
@@ -4829,19 +4829,19 @@
         <v>5827509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5758599</v>
+        <v>5764274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5882790</v>
+        <v>5885130</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8291972256142218</v>
+        <v>0.8291972256142219</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8193919167331811</v>
+        <v>0.820199511768154</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8370630656320359</v>
+        <v>0.8373960094868776</v>
       </c>
     </row>
     <row r="15">
